--- a/Headerboy/current_input.xlsx
+++ b/Headerboy/current_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\Headerboy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Downloads\header\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1B7580-382D-4CF3-A0E1-906C72357980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC523B8-B987-4FE8-BEAC-24070BC1E1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11265" xr2:uid="{ACD24C67-D9EE-4B0C-BF2C-FCE7FF5AFB81}"/>
   </bookViews>
@@ -34,9 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>www.notary.bcafinance.co.id</t>
+  </si>
+  <si>
+    <t>notary.bcafinance.co.id</t>
+  </si>
+  <si>
+    <t>202.6.211.67:9091</t>
+  </si>
+  <si>
+    <t>35.219.63.211</t>
+  </si>
+  <si>
+    <t>202.6.212.93</t>
   </si>
 </sst>
 </file>
@@ -426,7 +441,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:A10"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +458,29 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>

--- a/Headerboy/current_input.xlsx
+++ b/Headerboy/current_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Downloads\header\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\Headerboy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC523B8-B987-4FE8-BEAC-24070BC1E1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2523B5-9AF1-4402-92C8-1BAB13294F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11265" xr2:uid="{ACD24C67-D9EE-4B0C-BF2C-FCE7FF5AFB81}"/>
   </bookViews>
@@ -34,24 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>www.notary.bcafinance.co.id</t>
-  </si>
-  <si>
-    <t>notary.bcafinance.co.id</t>
-  </si>
-  <si>
-    <t>202.6.211.67:9091</t>
-  </si>
-  <si>
-    <t>35.219.63.211</t>
-  </si>
-  <si>
-    <t>202.6.212.93</t>
   </si>
 </sst>
 </file>
@@ -441,7 +426,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,29 +443,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
